--- a/direct/project-wh-system.xlsx
+++ b/direct/project-wh-system.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>유닛</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -78,26 +78,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>근거리 공격력 10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>원거리 공격력 30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자수정 40 약탈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자수정 100 약탈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자수정 100 한 번에 회수 후 사라짐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>소환에 필요한 자수정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -130,43 +110,139 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>필요 자수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2페이즈 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3페이즈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타워 마법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자수정 2배</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타워 보호막</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>필요 마나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마나 최대치 50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마나 충전은 10초에 1씩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동속도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100/120/140</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60/70/80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원거리 공격력 20/30/40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근거리 공격력 10/15/20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이속X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소환 쿨타임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자수정 100/150/250 한 번에 회수 후 사라짐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30/40/50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20/s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2/s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2/s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3/s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5/s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10/s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자수정 100/140/200 약탈(타워에 공격안받음)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자수정 60/80/120 약탈,(타워에 공격안받음)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20/30/40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50/60/80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>진행도</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>필요 자수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">2페이즈 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3페이즈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>타워 마법</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자수정 2배</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>타워 보호막</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>필요 마나</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마나 최대치 50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마나 충전은 10초에 1씩</t>
+    <t>10% &gt; 30%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30% &gt; 60%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60% &gt; 100%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -199,7 +275,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -259,13 +335,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -278,17 +367,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -591,255 +686,331 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K21"/>
+  <dimension ref="B2:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="11.09765625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="30.69921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.59765625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13" customWidth="1"/>
+    <col min="6" max="6" width="25.296875" customWidth="1"/>
+    <col min="7" max="7" width="18.19921875" customWidth="1"/>
+    <col min="8" max="9" width="11" customWidth="1"/>
+    <col min="16" max="16" width="21.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B3" s="2" t="s">
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="4"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="4"/>
+      <c r="G3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="4"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="1">
+        <v>50</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="1">
+        <v>10</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N4" s="2"/>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B5" s="5"/>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="N5" s="2"/>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="1">
+        <v>40</v>
+      </c>
+      <c r="H6" s="1">
+        <v>2</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B7" s="5"/>
+      <c r="C7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="1">
+        <v>50</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="1">
+        <v>40</v>
+      </c>
+      <c r="H8" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B9" s="5"/>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="1">
+        <v>50</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="5"/>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="2">
-        <v>50</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="2">
+      <c r="C11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="1">
+        <v>300</v>
+      </c>
+      <c r="E12" s="1">
         <v>10</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2" t="s">
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="2"/>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B5" s="1"/>
-      <c r="C5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="2">
-        <v>50</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="2">
+      <c r="C13" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="1">
+        <v>600</v>
+      </c>
+      <c r="E13" s="1">
+        <v>20</v>
+      </c>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E14" s="1">
         <v>30</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K5" s="2"/>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="2">
-        <v>100</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B7" s="1"/>
-      <c r="C7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="2">
-        <v>60</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="2">
+      <c r="F14" s="2"/>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="9">
         <v>20</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B9" s="1"/>
-      <c r="C9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="2">
-        <v>50</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="2" t="s">
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B19" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B12" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="6">
-        <v>0.3</v>
-      </c>
-      <c r="D12" s="2">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B13" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="6">
-        <v>0.6</v>
-      </c>
-      <c r="D13" s="2">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="6">
-        <v>1</v>
-      </c>
-      <c r="D14" s="2">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B17" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B18" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="7">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B19" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="2">
+      <c r="C19" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="5"/>
+        <v>31</v>
+      </c>
+      <c r="C20" s="4"/>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="5"/>
+        <v>30</v>
+      </c>
+      <c r="C21" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="14">
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="B2:I2"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="B20:C20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/direct/project-wh-system.xlsx
+++ b/direct/project-wh-system.xlsx
@@ -354,7 +354,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -364,25 +364,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -689,7 +692,7 @@
   <dimension ref="B2:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -704,68 +707,68 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="4"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="8"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="7" t="s">
+      <c r="F3" s="8"/>
+      <c r="G3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="4"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="8"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="3">
         <v>50</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="1">
+      <c r="F4" s="8"/>
+      <c r="G4" s="3">
         <v>10</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="3">
         <v>1</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="3" t="s">
         <v>44</v>
       </c>
       <c r="K4" s="2" t="s">
@@ -778,24 +781,24 @@
       <c r="N4" s="2"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B5" s="5"/>
-      <c r="C5" s="1" t="s">
+      <c r="B5" s="9"/>
+      <c r="C5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="1" t="s">
+      <c r="F5" s="8"/>
+      <c r="G5" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" s="3" t="s">
         <v>43</v>
       </c>
       <c r="K5" s="2" t="s">
@@ -808,94 +811,94 @@
       <c r="N5" s="2"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="1">
+      <c r="F6" s="8"/>
+      <c r="G6" s="3">
         <v>40</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="3">
         <v>2</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" s="3" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B7" s="5"/>
-      <c r="C7" s="1" t="s">
+      <c r="B7" s="9"/>
+      <c r="C7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="1">
+      <c r="F7" s="8"/>
+      <c r="G7" s="3">
         <v>50</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="3">
         <v>1</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" s="3" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="1">
+      <c r="F8" s="8"/>
+      <c r="G8" s="3">
         <v>40</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="3">
         <v>2.5</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I8" s="3" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B9" s="5"/>
-      <c r="C9" s="1" t="s">
+      <c r="B9" s="9"/>
+      <c r="C9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="1">
+      <c r="F9" s="8"/>
+      <c r="G9" s="3">
         <v>50</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="3">
         <v>1</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="I9" s="3" t="s">
         <v>48</v>
       </c>
     </row>
@@ -918,7 +921,7 @@
       <c r="B12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="4" t="s">
         <v>54</v>
       </c>
       <c r="D12" s="1">
@@ -933,7 +936,7 @@
       <c r="B13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="4" t="s">
         <v>55</v>
       </c>
       <c r="D13" s="1">
@@ -948,7 +951,7 @@
       <c r="B14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="4" t="s">
         <v>56</v>
       </c>
       <c r="D14" s="1">
@@ -971,7 +974,7 @@
       <c r="B18" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="5">
         <v>20</v>
       </c>
     </row>
@@ -984,19 +987,24 @@
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="4"/>
+      <c r="C20" s="8"/>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="4"/>
+      <c r="C21" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
     <mergeCell ref="K3:N3"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="E3:F3"/>
@@ -1006,11 +1014,6 @@
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="E9:F9"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
